--- a/src/Patient_List.xlsx
+++ b/src/Patient_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Patient ID</t>
   </si>
@@ -89,12 +89,16 @@
   </si>
   <si>
     <t>Past Treatments</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -461,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -469,13 +473,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375"/>
+    <col min="5" max="5" customWidth="true" width="11.140625"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125"/>
+    <col min="7" max="7" customWidth="true" width="14.5703125"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -505,63 +509,119 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
+      <c r="A2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
+      <c r="F3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="F5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
